--- a/registration.xlsx
+++ b/registration.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schins\Documents\AFROTC\Drill Meet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schins\Desktop\RPI DRILL MEET GIT KRACKEN\rpidrillmeet.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0124509A-1997-408D-9702-67D060A56FF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25130" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25130" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Name of School:</t>
   </si>
@@ -200,12 +201,18 @@
   </si>
   <si>
     <t>✝Registration Discount (15%)</t>
+  </si>
+  <si>
+    <t>$13 online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$17 Day of </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -627,19 +634,22 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,6 +657,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,14 +676,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -711,7 +718,13 @@
     <xdr:ext cx="7296150" cy="9229725"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image3.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -744,7 +757,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -782,7 +801,13 @@
     <xdr:ext cx="2571750" cy="2505075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg" descr="Watermarked big"/>
+        <xdr:cNvPr id="2" name="image1.jpg" descr="Watermarked big">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -810,7 +835,13 @@
     <xdr:ext cx="2457450" cy="2514600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg" descr="Watermarked big"/>
+        <xdr:cNvPr id="3" name="image2.jpg" descr="Watermarked big">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -843,7 +874,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -887,7 +924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1181,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2181,11 +2224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2199,22 +2242,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -2234,55 +2277,55 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
@@ -2307,19 +2350,19 @@
       <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="6">
         <v>60</v>
       </c>
@@ -2330,10 +2373,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="6">
         <v>60</v>
       </c>
@@ -2344,19 +2387,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="6">
         <v>10</v>
       </c>
@@ -2367,10 +2410,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="6">
         <v>45</v>
       </c>
@@ -2381,10 +2424,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="6">
         <v>30</v>
       </c>
@@ -2395,19 +2438,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="9">
         <v>50</v>
       </c>
@@ -2418,10 +2461,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="9">
         <v>40</v>
       </c>
@@ -2432,10 +2475,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="9">
         <v>20</v>
       </c>
@@ -2446,10 +2489,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="9">
         <v>20</v>
       </c>
@@ -2460,19 +2503,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="6">
         <v>40</v>
       </c>
@@ -2483,19 +2526,19 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="6">
         <v>40</v>
       </c>
@@ -2506,10 +2549,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="6">
         <v>25</v>
       </c>
@@ -2520,10 +2563,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="6">
         <v>25</v>
       </c>
@@ -2534,10 +2577,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="6">
         <v>25</v>
       </c>
@@ -2548,10 +2591,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="6">
         <v>15</v>
       </c>
@@ -2562,10 +2605,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="6">
         <v>25</v>
       </c>
@@ -2576,10 +2619,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="6">
         <v>25</v>
       </c>
@@ -2590,10 +2633,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="6">
         <v>25</v>
       </c>
@@ -2604,10 +2647,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="6">
         <v>25</v>
       </c>
@@ -2618,10 +2661,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="10">
         <v>10</v>
       </c>
@@ -2631,19 +2674,19 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="13">
         <f>SUM(E12:E35)</f>
         <v>10</v>
@@ -2652,10 +2695,10 @@
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="14">
         <f>B56</f>
         <v>0</v>
@@ -2664,10 +2707,10 @@
     <row r="39" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="14" t="s">
         <v>45</v>
       </c>
@@ -2675,41 +2718,41 @@
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="14">
         <f>E37+E38</f>
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2718,8 +2761,15 @@
       <c r="A47" s="17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="18" t="s">
@@ -3714,19 +3764,24 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A19:B19"/>
@@ -3743,24 +3798,19 @@
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/registration.xlsx
+++ b/registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schins\Desktop\RPI DRILL MEET GIT KRACKEN\rpidrillmeet.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A289E-61E0-4233-A1A7-1D373A61D7AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB56E2D-F8E8-4718-A592-6D21B511D3D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,39 +641,32 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,12 +683,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2249,22 +2249,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2284,92 +2284,92 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="45" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="6">
         <v>60</v>
       </c>
@@ -2380,10 +2380,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="6">
         <v>60</v>
       </c>
@@ -2394,19 +2394,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="6">
         <v>10</v>
       </c>
@@ -2417,10 +2417,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="6">
         <v>45</v>
       </c>
@@ -2431,10 +2431,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="6">
         <v>30</v>
       </c>
@@ -2445,19 +2445,19 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="9">
         <v>50</v>
       </c>
@@ -2468,10 +2468,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="9">
         <v>40</v>
       </c>
@@ -2482,10 +2482,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="9">
         <v>20</v>
       </c>
@@ -2496,10 +2496,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="9">
         <v>20</v>
       </c>
@@ -2510,19 +2510,19 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="6">
         <v>40</v>
       </c>
@@ -2533,19 +2533,19 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="6">
         <v>40</v>
       </c>
@@ -2556,10 +2556,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="6">
         <v>25</v>
       </c>
@@ -2570,10 +2570,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="6">
         <v>25</v>
       </c>
@@ -2584,10 +2584,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="6">
         <v>25</v>
       </c>
@@ -2598,10 +2598,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="6">
         <v>15</v>
       </c>
@@ -2612,10 +2612,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="6">
         <v>25</v>
       </c>
@@ -2626,10 +2626,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="6">
         <v>25</v>
       </c>
@@ -2640,10 +2640,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="6">
         <v>25</v>
       </c>
@@ -2654,10 +2654,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="6">
         <v>25</v>
       </c>
@@ -2668,10 +2668,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="10">
         <v>10</v>
       </c>
@@ -2681,19 +2681,19 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="23"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="13">
         <f>SUM(E12:E35)</f>
         <v>10</v>
@@ -2702,10 +2702,10 @@
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="14">
         <f>B56</f>
         <v>0</v>
@@ -2714,10 +2714,10 @@
     <row r="39" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="14" t="s">
         <v>45</v>
       </c>
@@ -2725,41 +2725,41 @@
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="14">
         <f>E37+E38</f>
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3771,19 +3771,24 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A19:B19"/>
@@ -3800,24 +3805,19 @@
     <mergeCell ref="A42:E42"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/registration.xlsx
+++ b/registration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schins\Desktop\RPI DRILL MEET GIT KRACKEN\rpidrillmeet.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rin_donovan\Desktop\rpidrillmeet.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB56E2D-F8E8-4718-A592-6D21B511D3D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3710FCB-99B1-4195-9B0B-A0EE4514AE7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Name of School:</t>
   </si>
@@ -105,15 +106,9 @@
     <t>Flight Standard Drill</t>
   </si>
   <si>
-    <t>Flight Innovative Drill</t>
-  </si>
-  <si>
     <t>Armed Competition</t>
   </si>
   <si>
-    <t>Platoon Basic</t>
-  </si>
-  <si>
     <t>Squad Basic</t>
   </si>
   <si>
@@ -138,18 +133,12 @@
     <t>Track Relay 4 x 100 (Team of 4)</t>
   </si>
   <si>
-    <t>Track Relay 4 x 400 (Team of 4)</t>
-  </si>
-  <si>
     <t>5K (Per Individual)</t>
   </si>
   <si>
     <t>Swimming Relay 4 x 100 (Team of 4)</t>
   </si>
   <si>
-    <t>Swimming Relay 4 x 100 IM (Team of 4)</t>
-  </si>
-  <si>
     <t>Swimming T-Shirt Relay</t>
   </si>
   <si>
@@ -204,16 +193,16 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>✝Registration discount is applied ONLY if registration is received prior to 1 Feburary 2019</t>
-  </si>
-  <si>
-    <t>✝Registration Discount (15%)</t>
-  </si>
-  <si>
     <t>$13 online</t>
   </si>
   <si>
     <t xml:space="preserve">$15 Day of </t>
+  </si>
+  <si>
+    <t>✝Registration discount is applied ONLY if registration is received prior to 1 Feburary 2020</t>
+  </si>
+  <si>
+    <t>✝Registration Discount (20%)</t>
   </si>
 </sst>
 </file>
@@ -641,32 +630,39 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -683,19 +679,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,7 +791,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2571750" cy="2505075"/>
@@ -836,7 +825,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2457450" cy="2514600"/>
@@ -870,13 +859,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -920,13 +909,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1155700</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1234,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A21:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -2232,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2249,22 +2238,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2284,92 +2273,92 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="33" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="6">
         <v>60</v>
       </c>
@@ -2380,10 +2369,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="6">
         <v>60</v>
       </c>
@@ -2394,33 +2383,33 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="6">
         <v>10</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E17" si="1">D15*C15</f>
+        <f t="shared" ref="E15:E16" si="1">D15*C15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6">
         <v>45</v>
       </c>
@@ -2430,50 +2419,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="6">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8">
-        <f t="shared" si="1"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
+        <f t="shared" ref="E18:E20" si="2">D18*C18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="8">
-        <f t="shared" ref="E19:E22" si="2">D19*C19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8">
@@ -2482,86 +2471,86 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="9">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="9">
-        <v>20</v>
+      <c r="A22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="6">
+        <v>45</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8">
-        <f t="shared" si="2"/>
+        <f>D22*C22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="6">
         <v>40</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8">
-        <f>D24*C24</f>
+        <f t="shared" ref="E24:E30" si="3">D24*C24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="C25" s="6">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:E34" si="3">D26*C26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="8">
@@ -2569,11 +2558,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="6">
         <v>25</v>
       </c>
@@ -2583,11 +2572,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="6">
         <v>25</v>
       </c>
@@ -2597,13 +2586,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="8">
@@ -2611,182 +2600,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="6">
-        <v>25</v>
+      <c r="B31" s="23"/>
+      <c r="C31" s="10">
+        <v>10</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="8">
-        <f t="shared" si="3"/>
+      <c r="E31" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="13">
+        <f>SUM(E12:E31)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="14">
+        <f>B52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="6">
-        <v>25</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="6">
-        <v>25</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+    <row r="35" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="6">
-        <v>25</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="10">
+      <c r="D36" s="23"/>
+      <c r="E36" s="14">
+        <f>E33+E34</f>
         <v>10</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="28" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="13">
-        <f>SUM(E12:E35)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="34" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="14">
-        <f>B56</f>
-        <v>0</v>
-      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="14" t="s">
+      <c r="A39" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="35" t="s">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="14">
-        <f>E37+E38</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="B46" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-    </row>
-    <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="B47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B49" s="20"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="20"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>52</v>
       </c>
@@ -2796,35 +2753,15 @@
       <c r="A52" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="20"/>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="20"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="20"/>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="20"/>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="21">
-        <f>SUM(B51:B55)*15</f>
+      <c r="B52" s="21">
+        <f>SUM(B47:B51)*15</f>
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3765,17 +3702,34 @@
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
+  <mergeCells count="43">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:B15"/>
@@ -3789,35 +3743,10 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/registration.xlsx
+++ b/registration.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rin_donovan\Desktop\rpidrillmeet.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAA4920-D118-47CD-B5EE-831D7F67E080}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2EBC29-14B5-4547-82F4-E34B45948A2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="Registration" sheetId="2" r:id="rId2"/>
+    <sheet name="Registration" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -594,6 +593,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -603,6 +603,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -644,10 +647,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,89 +665,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7296150" cy="9229725"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image3.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>598517</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8523317" cy="9328150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -925,13 +841,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>384780</xdr:colOff>
+      <xdr:colOff>432404</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2261</xdr:colOff>
+      <xdr:colOff>49885</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -956,8 +872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2756505" y="8639175"/>
-          <a:ext cx="2713106" cy="2790825"/>
+          <a:off x="2801748" y="8680847"/>
+          <a:ext cx="2713106" cy="2824162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1275,1011 +1191,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A21:A1000"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="105" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2293,22 +1209,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2328,92 +1244,92 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="6">
         <v>10</v>
       </c>
@@ -2424,10 +1340,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="6">
         <v>45</v>
       </c>
@@ -2438,19 +1354,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="9">
         <v>40</v>
       </c>
@@ -2461,10 +1377,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="9">
         <v>20</v>
       </c>
@@ -2475,19 +1391,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="6">
         <v>45</v>
       </c>
@@ -2498,19 +1414,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="9">
         <v>3</v>
       </c>
@@ -2521,10 +1437,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="9">
         <v>7</v>
       </c>
@@ -2535,19 +1451,19 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="6">
         <v>40</v>
       </c>
@@ -2558,10 +1474,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="6">
         <v>25</v>
       </c>
@@ -2572,10 +1488,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="6">
         <v>15</v>
       </c>
@@ -2586,10 +1502,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="6">
         <v>25</v>
       </c>
@@ -2600,10 +1516,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="6">
         <v>25</v>
       </c>
@@ -2614,10 +1530,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="6">
         <v>25</v>
       </c>
@@ -2628,10 +1544,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="10">
         <v>10</v>
       </c>
@@ -2641,19 +1557,19 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="13">
         <f>SUM(E11:E29)</f>
         <v>10</v>
@@ -2662,10 +1578,10 @@
     <row r="32" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="24"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="14">
         <f>B48</f>
         <v>0</v>
@@ -2674,10 +1590,10 @@
     <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="14" t="s">
         <v>35</v>
       </c>
@@ -2685,23 +1601,23 @@
     <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="14">
         <f>E31+E32</f>
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2710,7 +1626,7 @@
       <c r="A39" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="22" t="s">
         <v>53</v>
       </c>
     </row>
